--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10761,6 +10761,98 @@
         </is>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45204.08333333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>15/07/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>15/07/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:52</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>15/07/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:59</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-patriotas/lp5kVJgg/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.63</v>
+        <v>2.15</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.71</v>
+        <v>2.97</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/07/2023 22:26</t>
+          <t>23/07/2023 22:29</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.53</v>
+        <v>2.86</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23/07/2023 22:23</t>
+          <t>23/07/2023 22:29</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.3</v>
+        <v>3.72</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.51</v>
+        <v>2.79</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/07/2023 22:26</t>
+          <t>23/07/2023 22:29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-barranquilla/2m9gUw9a/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-cortulua/f3N2Qe8O/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.15</v>
+        <v>1.63</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.97</v>
+        <v>1.71</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/07/2023 22:29</t>
+          <t>23/07/2023 22:26</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2.86</v>
+        <v>3.53</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23/07/2023 22:29</t>
+          <t>23/07/2023 22:23</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.72</v>
+        <v>5.3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.79</v>
+        <v>5.51</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 22:29</t>
+          <t>23/07/2023 22:26</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-cortulua/f3N2Qe8O/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-barranquilla/2m9gUw9a/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>4.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.97</v>
+        <v>4.26</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>05/08/2023 22:29</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.13</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.34</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.26</v>
+        <v>2.97</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>3.13</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>30/07/2023 22:42</t>
+          <t>05/08/2023 14:01</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>06/08/2023 20:57</t>
+          <t>06/08/2023 21:51</t>
         </is>
       </c>
       <c r="N20" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>05/08/2023 14:01</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>3.82</v>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>30/07/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>06/08/2023 20:57</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>5.63</v>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>30/07/2023 22:42</t>
+          <t>05/08/2023 14:01</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>06/08/2023 20:54</t>
+          <t>06/08/2023 21:40</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-boca-juniors-de-cali/W008slqG/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-barranquilla/2L8ioWqi/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>05/08/2023 14:01</t>
+          <t>30/07/2023 22:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>06/08/2023 21:51</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>05/08/2023 14:01</t>
+          <t>30/07/2023 22:42</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.58</v>
+        <v>3.97</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>06/08/2023 21:55</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.82</v>
+        <v>5.63</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>05/08/2023 14:01</t>
+          <t>30/07/2023 22:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>06/08/2023 21:40</t>
+          <t>06/08/2023 20:54</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-barranquilla/2L8ioWqi/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-boca-juniors-de-cali/W008slqG/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.59</v>
+        <v>3.18</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.73</v>
+        <v>3.22</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:24</t>
+          <t>12/08/2023 22:22</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.47</v>
+        <v>4.62</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.44</v>
+        <v>3.59</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.71</v>
+        <v>3.73</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:24</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.99</v>
+        <v>4.75</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>8.119999999999999</v>
+        <v>5.47</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.18</v>
+        <v>4.44</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.22</v>
+        <v>4.71</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:22</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.05</v>
+        <v>6.99</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.62</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
         </is>
       </c>
     </row>
@@ -4437,34 +4437,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4472,36 +4472,36 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/08/2023 19:45</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.03</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
         </is>
       </c>
     </row>
@@ -4529,34 +4529,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>1.99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4564,36 +4564,36 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 19:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>4.03</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,22 +6009,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,40 +6032,40 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="P61" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>03/09/2023 22:52</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>4.02</v>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>03/09/2023 22:59</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>5.41</v>
-      </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.3</v>
+        <v>4.59</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 22:59</t>
+          <t>03/09/2023 22:52</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-orsomarso/QqFMDCPB/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-tigres-futbol-club/WMFIEhA5/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,22 +6101,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,40 +6124,40 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.54</v>
+        <v>4.02</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 22:52</t>
+          <t>03/09/2023 22:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.02</v>
+        <v>5.41</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.59</v>
+        <v>6.3</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 22:52</t>
+          <t>03/09/2023 22:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-tigres-futbol-club/WMFIEhA5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-orsomarso/QqFMDCPB/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,31 +6584,31 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.65</v>
+        <v>3.33</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>06/09/2023 20:53</t>
+          <t>06/09/2023 20:55</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.26</v>
+        <v>3.11</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.24</v>
+        <v>2.76</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Leones</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/09/2023 20:55</t>
+          <t>06/09/2023 20:53</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.11</v>
+        <v>4.26</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.76</v>
+        <v>3.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,98 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-patriotas/lp5kVJgg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45204.9375</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>05/10/2023 22:22</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>05/10/2023 22:27</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>03/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>05/10/2023 22:27</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-quindio/S8B8tNGC/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,6 +10945,98 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45205.95833333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>02/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>06/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>02/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>06/10/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>02/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>06/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-atletico-f-c/feD0rqn0/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.18</v>
+        <v>4.44</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.22</v>
+        <v>4.71</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:22</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.05</v>
+        <v>6.99</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.62</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.44</v>
+        <v>3.18</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,32 +3096,32 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.71</v>
+        <v>3.22</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
+          <t>12/08/2023 22:22</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>09/08/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
           <t>12/08/2023 22:28</t>
         </is>
       </c>
-      <c r="R29" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>09/08/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>12/08/2023 22:28</t>
-        </is>
-      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,22 +6009,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,40 +6032,40 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.54</v>
+        <v>4.02</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>03/09/2023 22:52</t>
+          <t>03/09/2023 22:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.02</v>
+        <v>5.41</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.59</v>
+        <v>6.3</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 22:52</t>
+          <t>03/09/2023 22:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-tigres-futbol-club/WMFIEhA5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-orsomarso/QqFMDCPB/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,22 +6101,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,40 +6124,40 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="P62" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>03/09/2023 22:52</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>4.02</v>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>03/09/2023 22:59</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>5.41</v>
-      </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>6.3</v>
+        <v>4.59</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 22:59</t>
+          <t>03/09/2023 22:52</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-orsomarso/QqFMDCPB/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-tigres-futbol-club/WMFIEhA5/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.34</v>
+        <v>3.12</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.3</v>
+        <v>3.36</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.51</v>
+        <v>1.45</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.98</v>
+        <v>4.22</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.36</v>
+        <v>6.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>11/09/2023 22:12</t>
+          <t>13/09/2023 20:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>11/09/2023 22:12</t>
+          <t>13/09/2023 20:42</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="R82" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>13/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
         <v>2.49</v>
       </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>11/09/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>2.67</v>
-      </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-quindio/QJVVvkOA/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-patriotas/retRuV84/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.13</v>
+        <v>2.49</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.49</v>
+        <v>2.67</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-patriotas/retRuV84/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-quindio/QJVVvkOA/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,98 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-atletico-f-c/feD0rqn0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-bogota/EapRb4Wt/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.15</v>
+        <v>1.63</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.97</v>
+        <v>1.71</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/07/2023 22:29</t>
+          <t>23/07/2023 22:26</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.12</v>
+        <v>3.87</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2.86</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23/07/2023 22:29</t>
+          <t>23/07/2023 22:23</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.72</v>
+        <v>5.3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.79</v>
+        <v>5.51</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/07/2023 22:29</t>
+          <t>23/07/2023 22:26</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-cortulua/f3N2Qe8O/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-barranquilla/2m9gUw9a/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.63</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.71</v>
+        <v>2.97</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/07/2023 22:26</t>
+          <t>23/07/2023 22:29</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.87</v>
+        <v>3.12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.53</v>
+        <v>2.86</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23/07/2023 22:23</t>
+          <t>23/07/2023 22:29</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.3</v>
+        <v>3.72</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.51</v>
+        <v>2.79</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 22:26</t>
+          <t>23/07/2023 22:29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-barranquilla/2m9gUw9a/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-cortulua/f3N2Qe8O/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.44</v>
+        <v>3.18</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,32 +2912,32 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.71</v>
+        <v>3.22</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>12/08/2023 22:22</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>09/08/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>12/08/2023 22:28</t>
         </is>
       </c>
-      <c r="R27" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>09/08/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>12/08/2023 22:28</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.59</v>
+        <v>4.44</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.73</v>
+        <v>4.71</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:24</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.75</v>
+        <v>6.99</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.47</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.18</v>
+        <v>3.59</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.22</v>
+        <v>3.73</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:22</t>
+          <t>12/08/2023 22:24</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.62</v>
+        <v>5.47</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Leones</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,31 +6584,31 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>06/09/2023 20:55</t>
+          <t>06/09/2023 20:53</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.11</v>
+        <v>4.26</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.76</v>
+        <v>3.24</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.65</v>
+        <v>3.33</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/09/2023 20:53</t>
+          <t>06/09/2023 20:55</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.26</v>
+        <v>3.11</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.24</v>
+        <v>2.76</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.51</v>
+        <v>1.45</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.98</v>
+        <v>4.22</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.36</v>
+        <v>6.3</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>7.34</v>
+        <v>3.12</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>6.3</v>
+        <v>3.36</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
         </is>
       </c>
     </row>
@@ -11126,6 +11126,190 @@
       <c r="V116" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-bogota/EapRb4Wt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45206.9375</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Cortulua</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:24</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-patriotas/YoC4s316/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45206.9375</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>02/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:27</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>02/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>02/10/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:26</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-barranquilla/tCFCusWI/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.18</v>
+        <v>4.44</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.22</v>
+        <v>4.71</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:22</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.05</v>
+        <v>6.99</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.62</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.44</v>
+        <v>3.18</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.71</v>
+        <v>3.22</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>12/08/2023 22:22</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>09/08/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>12/08/2023 22:28</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>09/08/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>12/08/2023 22:28</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>27/08/2023 10:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28/08/2023 21:18</t>
+          <t>28/08/2023 21:54</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>27/08/2023 10:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>28/08/2023 21:18</t>
+          <t>28/08/2023 21:54</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>27/08/2023 10:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>28/08/2023 21:18</t>
+          <t>28/08/2023 21:59</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-llaneros/Aov3KNtR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-real-soacha/GnofMqCE/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Real Soacha</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
       <c r="J52" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>27/08/2023 10:42</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>28/08/2023 21:54</t>
+          <t>28/08/2023 21:18</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>27/08/2023 10:42</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>28/08/2023 21:54</t>
+          <t>28/08/2023 21:18</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.47</v>
+        <v>3</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>27/08/2023 10:42</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>28/08/2023 21:59</t>
+          <t>28/08/2023 21:18</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-real-soacha/GnofMqCE/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-llaneros/Aov3KNtR/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,31 +6584,31 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.65</v>
+        <v>3.33</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>06/09/2023 20:53</t>
+          <t>06/09/2023 20:55</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.26</v>
+        <v>3.11</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.24</v>
+        <v>2.76</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Leones</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/09/2023 20:55</t>
+          <t>06/09/2023 20:53</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.11</v>
+        <v>4.26</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.76</v>
+        <v>3.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.34</v>
+        <v>3.12</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.3</v>
+        <v>3.36</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.51</v>
+        <v>1.45</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.98</v>
+        <v>4.22</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.36</v>
+        <v>6.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,282 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-barranquilla/tCFCusWI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45207.95833333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>04/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>04/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>04/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-leones/M7ha3pOP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45208.04166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:53</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-llaneros/rHge4Q8J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45208.125</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Real Soacha</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:51</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-real-soacha/Eqd3qPWg/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cortulua</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.18</v>
+        <v>3.59</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.73</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:22</t>
+          <t>12/08/2023 22:24</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.62</v>
+        <v>5.47</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cortulua</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.59</v>
+        <v>3.18</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.73</v>
+        <v>3.22</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:24</t>
+          <t>12/08/2023 22:22</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.47</v>
+        <v>4.62</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cortulua-tigres-futbol-club/byKkfRSL/</t>
         </is>
       </c>
     </row>
@@ -4437,34 +4437,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>1.99</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4472,36 +4472,36 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 19:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>4.03</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
         </is>
       </c>
     </row>
@@ -4529,34 +4529,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4564,36 +4564,36 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/08/2023 19:45</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.03</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.51</v>
+        <v>1.45</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.98</v>
+        <v>4.22</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.36</v>
+        <v>6.3</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>7.34</v>
+        <v>3.12</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>6.3</v>
+        <v>3.36</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.13</v>
+        <v>2.49</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.49</v>
+        <v>2.67</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-patriotas/retRuV84/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-quindio/QJVVvkOA/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>11/09/2023 22:12</t>
+          <t>13/09/2023 20:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>11/09/2023 22:12</t>
+          <t>13/09/2023 20:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="R83" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>13/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
         <v>2.49</v>
       </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>11/09/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>2.67</v>
-      </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-quindio/QJVVvkOA/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-patriotas/retRuV84/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,63 +8861,63 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.81</v>
+        <v>3.17</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.68</v>
+        <v>3.1</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:29</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 21:57</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.51</v>
+        <v>2.38</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.31</v>
+        <v>2.68</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:29</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-tigres-futbol-club/ABZmoQpp/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-cucuta/82mMk6xT/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,63 +8953,63 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>20/09/2023 22:21</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>20/09/2023 22:21</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.97</v>
+        <v>4.51</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>6.48</v>
+        <v>5.31</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>20/09/2023 22:21</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-cartagena/QwbHjnNM/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-tigres-futbol-club/ABZmoQpp/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>3.17</v>
+        <v>1.72</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.1</v>
+        <v>1.56</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:29</t>
+          <t>20/09/2023 22:21</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.14</v>
+        <v>3.6</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2.88</v>
+        <v>3.95</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>20/09/2023 21:57</t>
+          <t>20/09/2023 22:21</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.38</v>
+        <v>4.97</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.68</v>
+        <v>6.48</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:29</t>
+          <t>20/09/2023 22:21</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-cucuta/82mMk6xT/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-cartagena/QwbHjnNM/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,742 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-real-soacha/Eqd3qPWg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:52</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:52</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-fortaleza-c-e-i-f/Yaiwd2Ga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:14</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:14</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:14</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/barranquilla-orsomarso/2uqfhKFO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Cortulua</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:08</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/bogota-cortulua/GrXyH3hP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:08</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:01</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:08</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-cartagena/zFYZdr1g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:11</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:11</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:11</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-cucuta/SMjseMV5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:18</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:18</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:56</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-tigres-futbol-club/Olpjg00I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:56</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:56</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>11/10/2023 21:56</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/quindio-boca-juniors-de-cali/6DkoftoC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45210.92708333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Real Soacha</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:14</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:14</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>09/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>11/10/2023 22:14</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-real-santander/hjqVcOom/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>4.34</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.26</v>
+        <v>2.97</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>3.13</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.63</v>
+        <v>4.34</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.97</v>
+        <v>4.26</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>05/08/2023 22:29</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.13</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,63 +2881,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.44</v>
+        <v>3.59</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.71</v>
+        <v>3.73</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:24</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.99</v>
+        <v>4.75</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>09/08/2023 03:12</t>
+          <t>07/08/2023 22:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>8.119999999999999</v>
+        <v>5.47</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12/08/2023 22:28</t>
+          <t>12/08/2023 22:21</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
         </is>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,63 +2973,63 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.59</v>
+        <v>4.44</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.73</v>
+        <v>4.71</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:24</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.75</v>
+        <v>6.99</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>07/08/2023 22:12</t>
+          <t>09/08/2023 03:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.47</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12/08/2023 22:21</t>
+          <t>12/08/2023 22:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-atletico-f-c/KQprynMq/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/UeSYc9Td/</t>
         </is>
       </c>
     </row>
@@ -4437,34 +4437,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4472,36 +4472,36 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/08/2023 19:45</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.03</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
         </is>
       </c>
     </row>
@@ -4529,34 +4529,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>1.99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4564,36 +4564,36 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 19:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>4.03</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Real Soacha</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
       <c r="J51" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>27/08/2023 10:42</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28/08/2023 21:54</t>
+          <t>28/08/2023 21:18</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>27/08/2023 10:42</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.01</v>
+        <v>2.97</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>28/08/2023 21:54</t>
+          <t>28/08/2023 21:18</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.47</v>
+        <v>3</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>27/08/2023 10:42</t>
+          <t>25/08/2023 21:13</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>28/08/2023 21:59</t>
+          <t>28/08/2023 21:18</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-real-soacha/GnofMqCE/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-llaneros/Aov3KNtR/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.55</v>
+        <v>2.27</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>27/08/2023 10:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>28/08/2023 21:18</t>
+          <t>28/08/2023 21:54</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>27/08/2023 10:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.97</v>
+        <v>3.01</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>28/08/2023 21:18</t>
+          <t>28/08/2023 21:54</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>25/08/2023 21:13</t>
+          <t>27/08/2023 10:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>28/08/2023 21:18</t>
+          <t>28/08/2023 21:59</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-llaneros/Aov3KNtR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-real-soacha/GnofMqCE/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,22 +6009,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -6032,40 +6032,40 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="P61" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>03/09/2023 22:52</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>4.02</v>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>03/09/2023 22:59</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>5.41</v>
-      </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>27/08/2023 23:12</t>
+          <t>30/08/2023 22:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>6.3</v>
+        <v>4.59</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>03/09/2023 22:59</t>
+          <t>03/09/2023 22:52</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-orsomarso/QqFMDCPB/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-tigres-futbol-club/WMFIEhA5/</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -6101,22 +6101,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -6124,40 +6124,40 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.54</v>
+        <v>4.02</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/09/2023 22:52</t>
+          <t>03/09/2023 22:59</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.02</v>
+        <v>5.41</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>30/08/2023 22:12</t>
+          <t>27/08/2023 23:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.59</v>
+        <v>6.3</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/09/2023 22:52</t>
+          <t>03/09/2023 22:59</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-tigres-futbol-club/WMFIEhA5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-orsomarso/QqFMDCPB/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>3.04</v>
+        <v>2.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>11/09/2023 22:12</t>
+          <t>13/09/2023 20:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>11/09/2023 22:12</t>
+          <t>13/09/2023 20:42</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.37</v>
+        <v>2.81</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="R82" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>13/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
         <v>2.49</v>
       </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>11/09/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>2.67</v>
-      </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>15/09/2023 22:29</t>
+          <t>15/09/2023 22:12</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-quindio/QJVVvkOA/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-patriotas/retRuV84/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.13</v>
+        <v>2.49</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>13/09/2023 20:42</t>
+          <t>11/09/2023 22:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.49</v>
+        <v>2.67</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>15/09/2023 22:12</t>
+          <t>15/09/2023 22:29</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-patriotas/retRuV84/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-quindio/QJVVvkOA/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,63 +8953,63 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:21</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:21</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.51</v>
+        <v>4.97</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.31</v>
+        <v>6.48</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:21</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-tigres-futbol-club/ABZmoQpp/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-cartagena/QwbHjnNM/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:21</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:21</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.97</v>
+        <v>4.51</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>6.48</v>
+        <v>5.31</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:21</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-cartagena/QwbHjnNM/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-tigres-futbol-club/ABZmoQpp/</t>
         </is>
       </c>
     </row>
@@ -12322,6 +12322,2214 @@
       <c r="V129" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-real-santander/hjqVcOom/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45215.9375</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>13/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>13/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>13/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-fortaleza-c-e-i-f/pjL44O8D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45215.95833333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>13/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>13/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>13/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>16/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-cartagena/hfRKAaVn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45217.9375</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:27</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:25</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/barranquilla-atletico-f-c/ETHu6ypI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45218.04166666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:31</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:31</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>19/10/2023 00:31</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-llaneros/Q7obOIan/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45221.875</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>16/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>16/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>16/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-leones/GATm869l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45222.04166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>16/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:52</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>16/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:52</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>16/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:52</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-boca-juniors-de-cali/AVyGBuGt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45223.02083333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:29</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-cucuta/neeMIETN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45223.10416666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>24/10/2023 00:07</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>24/10/2023 00:07</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>19/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>24/10/2023 00:07</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-barranquilla/nsGm4FEU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45225.875</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:49</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>26/10/2023 20:49</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-boca-juniors-de-cali/I1OW7cF5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45226.03125</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:52</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>23/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:52</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-fortaleza-c-e-i-f/lORe6pv1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45226.9375</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:21</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:28</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:21</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-llaneros/IF35MdUb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45226.95833333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/barranquilla-cucuta/84dIJfEH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45229.91666666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:20</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:20</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:20</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-barranquilla/0vgALGq5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45230.89583333334</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>26/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>26/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>26/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>31/10/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-leones/vBPS8w0a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45230.95833333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>31/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>31/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>31/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-cartagena/4zQq9nfr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45231.06944444445</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:31</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:31</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>27/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:31</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-atletico-f-c/nHnfPbpt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45234.89583333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:33</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-cartagena/WpQO9Jpg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45235.0625</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>05/11/2023 01:26</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/leones-fortaleza-c-e-i-f/6aM054g7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45236.0625</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>06/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>06/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>01/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>06/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/barranquilla-llaneros/KUp2NxFh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45238.95833333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:55</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>08/11/2023 22:57</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-atletico-f-c/vViEKzaB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45241.91666666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Atletico F.C.</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-barranquilla/8jHq5eaO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45241.91666666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>08/11/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:57</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-cucuta/0QDy7HUB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45242.01041666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>08/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:11</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>08/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:11</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>08/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>12/11/2023 00:11</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-boca-juniors-de-cali/AXSi7QOf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45242.01041666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>08/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>11/11/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>08/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>11/11/2023 23:37</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>08/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>11/11/2023 23:37</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-leones/bg9nT7oE/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>29/07/2023 22:42</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.03</v>
+        <v>2.97</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>05/08/2023 22:28</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.41</v>
+        <v>2.91</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>29/07/2023 22:42</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>05/08/2023 22:28</t>
+          <t>05/08/2023 22:29</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.12</v>
+        <v>3.13</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>29/07/2023 22:42</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.13</v>
+        <v>2.85</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>05/08/2023 22:24</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-leones/tC7epjac/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>4.34</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.97</v>
+        <v>4.26</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.91</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>05/08/2023 22:29</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.13</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
         </is>
       </c>
     </row>
@@ -2137,42 +2137,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.34</v>
+        <v>1.76</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>29/07/2023 22:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4.26</v>
+        <v>2.03</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:28</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>29/07/2023 22:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2180,28 +2180,28 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:28</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>5.12</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>29/07/2023 22:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>4.13</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:24</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-leones/tC7epjac/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>05/08/2023 14:01</t>
+          <t>30/07/2023 22:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>06/08/2023 21:51</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.42</v>
+        <v>3.82</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>05/08/2023 14:01</t>
+          <t>30/07/2023 22:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.58</v>
+        <v>3.97</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>06/08/2023 21:55</t>
+          <t>06/08/2023 20:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.82</v>
+        <v>5.63</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>05/08/2023 14:01</t>
+          <t>30/07/2023 22:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>06/08/2023 21:40</t>
+          <t>06/08/2023 20:54</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-barranquilla/2L8ioWqi/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-boca-juniors-de-cali/W008slqG/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cartagena</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.56</v>
+        <v>1.93</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>30/07/2023 22:42</t>
+          <t>05/08/2023 14:01</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>06/08/2023 20:57</t>
+          <t>06/08/2023 21:51</t>
         </is>
       </c>
       <c r="N21" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>05/08/2023 14:01</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>3.82</v>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>30/07/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>06/08/2023 20:57</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>5.63</v>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>30/07/2023 22:42</t>
+          <t>05/08/2023 14:01</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>06/08/2023 20:54</t>
+          <t>06/08/2023 21:40</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-boca-juniors-de-cali/W008slqG/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-barranquilla/2L8ioWqi/</t>
         </is>
       </c>
     </row>
@@ -4437,34 +4437,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>1.99</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4472,36 +4472,36 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 19:45</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.1</v>
+        <v>4.03</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
         </is>
       </c>
     </row>
@@ -4529,34 +4529,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4564,36 +4564,36 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/08/2023 19:45</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.03</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Leones</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,31 +6584,31 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>06/09/2023 20:55</t>
+          <t>06/09/2023 20:53</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.11</v>
+        <v>4.26</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.76</v>
+        <v>3.24</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.65</v>
+        <v>3.33</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/09/2023 20:53</t>
+          <t>06/09/2023 20:55</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.26</v>
+        <v>3.11</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.24</v>
+        <v>2.76</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.34</v>
+        <v>3.12</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.3</v>
+        <v>3.36</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.51</v>
+        <v>1.45</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.98</v>
+        <v>4.22</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.36</v>
+        <v>6.3</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
         </is>
       </c>
     </row>
@@ -14530,6 +14530,98 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/cartagena-leones/bg9nT7oE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45245.0625</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Cucuta</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>15/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>15/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>15/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-fortaleza-c-e-i-f/f5tE3iBG/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>11/11/2023 21:59</t>
+          <t>11/11/2023 21:57</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.69</v>
+        <v>3.15</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.93</v>
+        <v>4.12</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>11/11/2023 21:59</t>
+          <t>11/11/2023 21:57</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>4.37</v>
+        <v>4.01</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>4.93</v>
+        <v>8.76</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>11/11/2023 21:59</t>
+          <t>11/11/2023 21:57</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-barranquilla/8jHq5eaO/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-cucuta/0QDy7HUB/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>11/11/2023 21:57</t>
+          <t>11/11/2023 21:59</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.15</v>
+        <v>3.69</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.12</v>
+        <v>3.93</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>11/11/2023 21:57</t>
+          <t>11/11/2023 21:59</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>4.01</v>
+        <v>4.37</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>8.76</v>
+        <v>4.93</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>11/11/2023 21:57</t>
+          <t>11/11/2023 21:59</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-cucuta/0QDy7HUB/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/atletico-f-c-barranquilla/8jHq5eaO/</t>
         </is>
       </c>
     </row>
@@ -14622,6 +14622,98 @@
       <c r="V154" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/cucuta-fortaleza-c-e-i-f/f5tE3iBG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45253.0625</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>20/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>20/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:07</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>20/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>23/11/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-fortaleza-c-e-i-f/QXjjCEaU/</t>
         </is>
       </c>
     </row>

--- a/2023/colombia_primera-b_2023.xlsx
+++ b/2023/colombia_primera-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>29/07/2023 22:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.97</v>
+        <v>2.03</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 22:28</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>2.91</v>
+        <v>3.41</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>29/07/2023 22:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2.81</v>
+        <v>3.21</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>05/08/2023 22:29</t>
+          <t>05/08/2023 22:28</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.13</v>
+        <v>5.12</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>29/07/2023 22:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.85</v>
+        <v>4.13</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>05/08/2023 22:21</t>
+          <t>05/08/2023 22:24</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-leones/tC7epjac/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>4.34</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.26</v>
+        <v>2.97</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>2.91</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>3.13</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>05/08/2023 17:21</t>
+          <t>05/08/2023 22:21</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-patriotas/Q3P8Mn7j/</t>
         </is>
       </c>
     </row>
@@ -2137,42 +2137,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.76</v>
+        <v>4.34</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>29/07/2023 22:42</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.03</v>
+        <v>4.26</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>05/08/2023 22:28</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>29/07/2023 22:42</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2180,28 +2180,28 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>05/08/2023 22:28</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>5.12</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>29/07/2023 22:42</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.13</v>
+        <v>2</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>05/08/2023 22:24</t>
+          <t>05/08/2023 17:21</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/llaneros-leones/tC7epjac/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/orsomarso-fortaleza-c-e-i-f/zZ6aqAE3/</t>
         </is>
       </c>
     </row>
@@ -4437,34 +4437,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4472,36 +4472,36 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>24/08/2023 19:45</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.03</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>23/08/2023 21:27</t>
+          <t>20/08/2023 22:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>24/08/2023 22:10</t>
+          <t>24/08/2023 22:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
         </is>
       </c>
     </row>
@@ -4529,34 +4529,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>1.99</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="N45" t="n">
@@ -4564,36 +4564,36 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 19:45</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>4.03</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>20/08/2023 22:42</t>
+          <t>23/08/2023 21:27</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>24/08/2023 22:29</t>
+          <t>24/08/2023 22:10</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-patriotas/IiFP64CR/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-tigres-futbol-club/ltg8btK7/</t>
         </is>
       </c>
     </row>
@@ -6553,30 +6553,30 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6584,31 +6584,31 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.02</v>
+        <v>3.18</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.65</v>
+        <v>3.33</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>06/09/2023 20:53</t>
+          <t>06/09/2023 20:55</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.26</v>
+        <v>3.11</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>03/09/2023 23:12</t>
+          <t>05/09/2023 15:42</t>
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.24</v>
+        <v>2.76</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
         </is>
       </c>
     </row>
@@ -6645,30 +6645,30 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Real Soacha</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bogota</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Leones</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.18</v>
+        <v>3.02</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/09/2023 20:55</t>
+          <t>06/09/2023 20:53</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.11</v>
+        <v>4.26</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/09/2023 15:42</t>
+          <t>03/09/2023 23:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.76</v>
+        <v>3.24</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-soacha-leones/027ZAA9U/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/tigres-futbol-club-bogota/QcfeSBv5/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Atletico F.C.</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.51</v>
+        <v>1.45</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.98</v>
+        <v>4.22</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.93</v>
+        <v>3.84</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.12</v>
+        <v>7.34</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/09/2023 02:12</t>
+          <t>08/09/2023 22:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.36</v>
+        <v>6.3</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>11/09/2023 21:58</t>
+          <t>11/09/2023 21:54</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Atletico F.C.</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.45</v>
+        <v>2.51</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.22</v>
+        <v>2.98</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.84</v>
+        <v>2.93</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>7.34</v>
+        <v>3.12</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>08/09/2023 22:42</t>
+          <t>07/09/2023 02:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>6.3</v>
+        <v>3.36</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>11/09/2023 21:54</t>
+          <t>11/09/2023 21:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-atletico-f-c/nDr4Qk9H/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-llaneros/0Gn8P9ON/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,63 +8861,63 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>3.17</v>
+        <v>1.81</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>3.1</v>
+        <v>1.68</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>20/09/2023 22:29</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>20/09/2023 21:57</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.38</v>
+        <v>4.51</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>16/09/2023 23:13</t>
+          <t>16/09/2023 22:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.68</v>
+        <v>5.31</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>20/09/2023 22:29</t>
+          <t>20/09/2023 22:22</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-cucuta/82mMk6xT/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-tigres-futbol-club/ABZmoQpp/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1.81</v>
+        <v>3.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.68</v>
+        <v>3.1</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 21:57</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.51</v>
+        <v>2.38</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>16/09/2023 22:42</t>
+          <t>16/09/2023 23:13</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.31</v>
+        <v>2.68</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>20/09/2023 22:22</t>
+          <t>20/09/2023 22:29</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/colombia/primera-b/real-santander-tigres-futbol-club/ABZmoQpp/</t>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/boca-juniors-de-cali-cucuta/82mMk6xT/</t>
         </is>
       </c>
     </row>
@@ -14714,6 +14714,98 @@
       <c r="V155" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/colombia/primera-b/patriotas-fortaleza-c-e-i-f/QXjjCEaU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>colombia</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>primera-b</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45259.0625</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>29/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/colombia/primera-b/fortaleza-c-e-i-f-patriotas/jeIdXcVu/</t>
         </is>
       </c>
     </row>
